--- a/BackTest/2019-10-24 BackTest INS.xlsx
+++ b/BackTest/2019-10-24 BackTest INS.xlsx
@@ -985,7 +985,9 @@
       <c r="J12" t="n">
         <v>10</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L12" t="n">
         <v>210.1</v>
       </c>
@@ -1042,7 +1044,9 @@
       <c r="J13" t="n">
         <v>11</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L13" t="n">
         <v>210.5</v>
       </c>
@@ -1097,7 +1101,9 @@
       <c r="J14" t="n">
         <v>15</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>20</v>
+      </c>
       <c r="L14" t="n">
         <v>210.4</v>
       </c>
@@ -1152,7 +1158,9 @@
       <c r="J15" t="n">
         <v>15</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
       <c r="L15" t="n">
         <v>210.6</v>
       </c>
@@ -1207,7 +1215,9 @@
       <c r="J16" t="n">
         <v>18</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>20</v>
+      </c>
       <c r="L16" t="n">
         <v>210.9</v>
       </c>
@@ -1262,7 +1272,9 @@
       <c r="J17" t="n">
         <v>20</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-9.090909090909092</v>
+      </c>
       <c r="L17" t="n">
         <v>210.9</v>
       </c>
@@ -1315,7 +1327,9 @@
       <c r="J18" t="n">
         <v>22</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>7.692307692307693</v>
+      </c>
       <c r="L18" t="n">
         <v>211</v>
       </c>
@@ -1366,7 +1380,9 @@
       <c r="J19" t="n">
         <v>24</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>20</v>
+      </c>
       <c r="L19" t="n">
         <v>211.3</v>
       </c>
@@ -1417,7 +1433,9 @@
       <c r="J20" t="n">
         <v>24</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>20</v>
+      </c>
       <c r="L20" t="n">
         <v>211.6</v>
       </c>
@@ -1468,7 +1486,9 @@
       <c r="J21" t="n">
         <v>26</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>211.7</v>
       </c>
@@ -1521,7 +1541,9 @@
       <c r="J22" t="n">
         <v>27</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>211.8</v>
       </c>
@@ -1575,7 +1597,7 @@
         <v>27</v>
       </c>
       <c r="K23" t="n">
-        <v>15.38461538461539</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L23" t="n">
         <v>211.8</v>
@@ -1630,7 +1652,7 @@
         <v>28</v>
       </c>
       <c r="K24" t="n">
-        <v>15.38461538461539</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L24" t="n">
         <v>212.3</v>
@@ -1685,7 +1707,7 @@
         <v>28</v>
       </c>
       <c r="K25" t="n">
-        <v>30.43478260869566</v>
+        <v>20</v>
       </c>
       <c r="L25" t="n">
         <v>212.8</v>
@@ -1740,7 +1762,7 @@
         <v>29</v>
       </c>
       <c r="K26" t="n">
-        <v>27.27272727272727</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L26" t="n">
         <v>213.1</v>
@@ -1795,7 +1817,7 @@
         <v>30</v>
       </c>
       <c r="K27" t="n">
-        <v>27.27272727272727</v>
+        <v>50</v>
       </c>
       <c r="L27" t="n">
         <v>213.7</v>
@@ -1850,7 +1872,7 @@
         <v>30</v>
       </c>
       <c r="K28" t="n">
-        <v>23.80952380952381</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L28" t="n">
         <v>214.1</v>
@@ -1899,7 +1921,7 @@
         <v>32</v>
       </c>
       <c r="K29" t="n">
-        <v>30.43478260869566</v>
+        <v>50</v>
       </c>
       <c r="L29" t="n">
         <v>214.5</v>
@@ -1948,7 +1970,7 @@
         <v>34</v>
       </c>
       <c r="K30" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L30" t="n">
         <v>214.7</v>
@@ -1997,7 +2019,7 @@
         <v>34</v>
       </c>
       <c r="K31" t="n">
-        <v>20</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L31" t="n">
         <v>215.1</v>
@@ -2048,7 +2070,7 @@
         <v>34</v>
       </c>
       <c r="K32" t="n">
-        <v>16.66666666666666</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L32" t="n">
         <v>215.4</v>
@@ -2099,7 +2121,7 @@
         <v>34</v>
       </c>
       <c r="K33" t="n">
-        <v>13.04347826086956</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L33" t="n">
         <v>215.7</v>
@@ -2150,7 +2172,7 @@
         <v>35</v>
       </c>
       <c r="K34" t="n">
-        <v>40</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L34" t="n">
         <v>216</v>
@@ -2252,7 +2274,7 @@
         <v>37</v>
       </c>
       <c r="K36" t="n">
-        <v>26.31578947368421</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L36" t="n">
         <v>216.6</v>
@@ -2303,7 +2325,7 @@
         <v>37</v>
       </c>
       <c r="K37" t="n">
-        <v>41.17647058823529</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L37" t="n">
         <v>216.7</v>
@@ -2354,7 +2376,7 @@
         <v>38</v>
       </c>
       <c r="K38" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>216.9</v>
@@ -2405,7 +2427,7 @@
         <v>38</v>
       </c>
       <c r="K39" t="n">
-        <v>28.57142857142857</v>
+        <v>50</v>
       </c>
       <c r="L39" t="n">
         <v>216.9</v>
@@ -2456,7 +2478,7 @@
         <v>38</v>
       </c>
       <c r="K40" t="n">
-        <v>28.57142857142857</v>
+        <v>50</v>
       </c>
       <c r="L40" t="n">
         <v>217.1</v>
@@ -2558,7 +2580,7 @@
         <v>38</v>
       </c>
       <c r="K42" t="n">
-        <v>45.45454545454545</v>
+        <v>50</v>
       </c>
       <c r="L42" t="n">
         <v>217.5</v>
@@ -2609,7 +2631,7 @@
         <v>38</v>
       </c>
       <c r="K43" t="n">
-        <v>45.45454545454545</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L43" t="n">
         <v>217.7</v>
@@ -2660,7 +2682,7 @@
         <v>38</v>
       </c>
       <c r="K44" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>217.8</v>
@@ -2711,7 +2733,7 @@
         <v>38</v>
       </c>
       <c r="K45" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L45" t="n">
         <v>217.8</v>
@@ -2762,7 +2784,7 @@
         <v>38</v>
       </c>
       <c r="K46" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L46" t="n">
         <v>217.9</v>
@@ -2812,9 +2834,7 @@
       <c r="J47" t="n">
         <v>38</v>
       </c>
-      <c r="K47" t="n">
-        <v>25</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>218</v>
       </c>
